--- a/datos/catalogo-mare.xlsx
+++ b/datos/catalogo-mare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MARE CREANDO 2025\CATALOGO MARE\plantilla para cloude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162DD0EF-4254-4C26-9453-9F871BE61721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29364878-404F-481B-8377-46747071A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{227819F0-7ECA-4DCA-A611-9F2186BA8A76}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>Código</t>
   </si>
@@ -81,39 +103,6 @@
     <t>Imagen 10</t>
   </si>
   <si>
-    <t>Sin color</t>
-  </si>
-  <si>
-    <t>Negro</t>
-  </si>
-  <si>
-    <t>Blanco</t>
-  </si>
-  <si>
-    <t>Dorado</t>
-  </si>
-  <si>
-    <t>Plateado</t>
-  </si>
-  <si>
-    <t>Acero</t>
-  </si>
-  <si>
-    <t>Nude</t>
-  </si>
-  <si>
-    <t>Tonos marrones</t>
-  </si>
-  <si>
-    <t>Tonos pastel</t>
-  </si>
-  <si>
-    <t>Varios colores</t>
-  </si>
-  <si>
-    <t>Amarillo</t>
-  </si>
-  <si>
     <t>Verde</t>
   </si>
   <si>
@@ -228,24 +217,6 @@
     <t>Textil</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1EOeJevIgYV-n4QVAM0qRbxU3Y9RBntdM/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1AJTbHU9aAh0ORQ7hQG98vUq7H7BExSbw/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nWi8cxAxh4uLrhY5QpGNn28VhI74uIBX/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Aavg2TY8dI2OFjnRDlIvOcteLNUWcMrw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rvGJYdymS_rA7sdD9sW-EyX62GRSCXim/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EV7xQoOiGwQ27vf_lSHbDvL6haWmKudD/view?usp=sharing</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -258,45 +229,12 @@
     <t>Marroquineria</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1txcpxiV5C60z-FZ9enWiDgTf3PEeN-Rn/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13n-bnq8tU5OHY59VeCA5o9JbxC9-11Lw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fAbn2tZashCe9iw8SPwUFarR63eK52q_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1akKfLgdg6zRYVPmPKpBE4yykVp6VW7zr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12N8axkEHFfyjq-B8fATtaecEq6YnFzPd/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mzhqhBcsFu2kPfgMTuT_2BqyqzetvYw7/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>LB270</t>
   </si>
   <si>
     <t>Bandolera</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/15Oy5tAPR9OYhl1pVtMCdLfJhFXJgdXoA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NvU5Zu1JYBnte0oY5bRRN2X9bDlvr793/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wZpvpLhctpVodnGu9PPGzJZ6QjpURGXj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1duHDtNGrJA4If4xRg_GA-ls5Ti9KanU4/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NvU5Zu1JYBnte0oY5bRRN2X9bDlvr793/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>Set caravanas</t>
   </si>
   <si>
@@ -306,9 +244,6 @@
     <t>Caravanas acero</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1c6jBeLfZQpW1kW9XwfGrwH3vktkrgPB_/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Imagen Variantes</t>
   </si>
   <si>
@@ -327,18 +262,6 @@
     <t>LB1091</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1kL-IcfeXN1-KRp_oTbdioYP6mCkKdlf3/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DyK-3KvyhDXLtKvXRYT_oIecn6gl-HXJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1HQb6pa7XXys6LGI1YxIyuklCBLBvaR-u/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cyymd3HUyNSGpKfq8Ag-O9K6xvvtCXO_/view?usp=sharing</t>
-  </si>
-  <si>
     <t>NKG2002</t>
   </si>
   <si>
@@ -349,13 +272,100 @@
   </si>
   <si>
     <t>45cm</t>
+  </si>
+  <si>
+    <t>Imagen 1 URL</t>
+  </si>
+  <si>
+    <t>Imagen 2 URL</t>
+  </si>
+  <si>
+    <t>Imagen 3 URL</t>
+  </si>
+  <si>
+    <t>Imagen 4 URL</t>
+  </si>
+  <si>
+    <t>Imagen 5 URL</t>
+  </si>
+  <si>
+    <t>Imagen 6 URL</t>
+  </si>
+  <si>
+    <t>Imagen 7 URL</t>
+  </si>
+  <si>
+    <t>Imagen 8 URL</t>
+  </si>
+  <si>
+    <t>Imagen 9 URL</t>
+  </si>
+  <si>
+    <t>Imagen 10 URL</t>
+  </si>
+  <si>
+    <t>Imagen Variantes URL</t>
+  </si>
+  <si>
+    <t>PASH5016-1</t>
+  </si>
+  <si>
+    <t>PASH5016-2</t>
+  </si>
+  <si>
+    <t>PASH5016-3</t>
+  </si>
+  <si>
+    <t>PASH5016-4</t>
+  </si>
+  <si>
+    <t>PASH5016-5</t>
+  </si>
+  <si>
+    <t>PASH5016-6</t>
+  </si>
+  <si>
+    <t>LB233-1</t>
+  </si>
+  <si>
+    <t>LB233-2</t>
+  </si>
+  <si>
+    <t>LB233-3</t>
+  </si>
+  <si>
+    <t>LB233-4</t>
+  </si>
+  <si>
+    <t>LB233-5</t>
+  </si>
+  <si>
+    <t>LB270-1</t>
+  </si>
+  <si>
+    <t>LB270-2</t>
+  </si>
+  <si>
+    <t>LB270-3</t>
+  </si>
+  <si>
+    <t>LB270-4</t>
+  </si>
+  <si>
+    <t>LB1091-1</t>
+  </si>
+  <si>
+    <t>LB1091-2</t>
+  </si>
+  <si>
+    <t>LB1091-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +387,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -742,7 +758,7 @@
   <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +768,7 @@
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -771,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -804,304 +821,418 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="str" cm="1">
+        <f t="array" ref="R2">IF(INDEX($G2:$Q2, COLUMN(A1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(A1)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/PASH5016-1</v>
+      </c>
+      <c r="S2" s="2" t="str" cm="1">
+        <f t="array" ref="S2">IF(INDEX($G2:$Q2, COLUMN(B1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(B1)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/PASH5016-2</v>
+      </c>
+      <c r="T2" s="2" t="str" cm="1">
+        <f t="array" ref="T2">IF(INDEX($G2:$Q2, COLUMN(C1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(C1)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/PASH5016-3</v>
+      </c>
+      <c r="U2" s="2" t="str" cm="1">
+        <f t="array" ref="U2">IF(INDEX($G2:$Q2, COLUMN(D1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(D1)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/PASH5016-4</v>
+      </c>
+      <c r="V2" s="2" t="str" cm="1">
+        <f t="array" ref="V2">IF(INDEX($G2:$Q2, COLUMN(E1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(E1)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/PASH5016-5</v>
+      </c>
+      <c r="W2" s="2" t="str" cm="1">
+        <f t="array" ref="W2">IF(INDEX($G2:$Q2, COLUMN(F1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(F1)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/PASH5016-6</v>
+      </c>
+      <c r="X2" s="2" t="str" cm="1">
+        <f t="array" ref="X2">IF(INDEX($G2:$Q2, COLUMN(G1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(G1)))</f>
+        <v/>
+      </c>
+      <c r="Y2" s="2" t="str" cm="1">
+        <f t="array" ref="Y2">IF(INDEX($G2:$Q2, COLUMN(H1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(H1)))</f>
+        <v/>
+      </c>
+      <c r="Z2" s="2" t="str" cm="1">
+        <f t="array" ref="Z2">IF(INDEX($G2:$Q2, COLUMN(I1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(I1)))</f>
+        <v/>
+      </c>
+      <c r="AA2" s="2" t="str" cm="1">
+        <f t="array" ref="AA2">IF(INDEX($G2:$Q2, COLUMN(J1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(J1)))</f>
+        <v/>
+      </c>
+      <c r="AB2" s="2" t="str" cm="1">
+        <f t="array" ref="AB2">IF(INDEX($G2:$Q2, COLUMN(K1))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G2:$Q2, COLUMN(K1)))</f>
+        <v/>
       </c>
       <c r="AC2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AW2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AX2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>790</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="str" cm="1">
+        <f t="array" ref="R3">IF(INDEX($G3:$Q3, COLUMN(A2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(A2)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB233-1</v>
+      </c>
+      <c r="S3" s="2" t="str" cm="1">
+        <f t="array" ref="S3">IF(INDEX($G3:$Q3, COLUMN(B2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(B2)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB233-2</v>
+      </c>
+      <c r="T3" s="2" t="str" cm="1">
+        <f t="array" ref="T3">IF(INDEX($G3:$Q3, COLUMN(C2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(C2)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB233-3</v>
+      </c>
+      <c r="U3" s="2" t="str" cm="1">
+        <f t="array" ref="U3">IF(INDEX($G3:$Q3, COLUMN(D2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(D2)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB233-4</v>
+      </c>
+      <c r="V3" s="2" t="str" cm="1">
+        <f t="array" ref="V3">IF(INDEX($G3:$Q3, COLUMN(E2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(E2)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB233-5</v>
+      </c>
+      <c r="W3" s="2" t="str" cm="1">
+        <f t="array" ref="W3">IF(INDEX($G3:$Q3, COLUMN(F2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(F2)))</f>
+        <v/>
+      </c>
+      <c r="X3" s="2" t="str" cm="1">
+        <f t="array" ref="X3">IF(INDEX($G3:$Q3, COLUMN(G2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(G2)))</f>
+        <v/>
+      </c>
+      <c r="Y3" s="2" t="str" cm="1">
+        <f t="array" ref="Y3">IF(INDEX($G3:$Q3, COLUMN(H2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(H2)))</f>
+        <v/>
+      </c>
+      <c r="Z3" s="2" t="str" cm="1">
+        <f t="array" ref="Z3">IF(INDEX($G3:$Q3, COLUMN(I2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(I2)))</f>
+        <v/>
+      </c>
+      <c r="AA3" s="2" t="str" cm="1">
+        <f t="array" ref="AA3">IF(INDEX($G3:$Q3, COLUMN(J2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(J2)))</f>
+        <v/>
+      </c>
+      <c r="AB3" s="2" t="str" cm="1">
+        <f t="array" ref="AB3">IF(INDEX($G3:$Q3, COLUMN(K2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(K2)))</f>
+        <v/>
       </c>
       <c r="AD3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AF3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AO3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>650</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" t="s">
-        <v>70</v>
+        <v>97</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="str" cm="1">
+        <f t="array" ref="R4">IF(INDEX($G4:$Q4, COLUMN(A3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(A3)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB270-1</v>
+      </c>
+      <c r="S4" s="2" t="str" cm="1">
+        <f t="array" ref="S4">IF(INDEX($G4:$Q4, COLUMN(B3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(B3)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB270-2</v>
+      </c>
+      <c r="T4" s="2" t="str" cm="1">
+        <f t="array" ref="T4">IF(INDEX($G4:$Q4, COLUMN(C3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(C3)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB270-3</v>
+      </c>
+      <c r="U4" s="2" t="str" cm="1">
+        <f t="array" ref="U4">IF(INDEX($G4:$Q4, COLUMN(D3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(D3)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB270-4</v>
+      </c>
+      <c r="V4" s="2" t="str" cm="1">
+        <f t="array" ref="V4">IF(INDEX($G4:$Q4, COLUMN(E3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(E3)))</f>
+        <v/>
+      </c>
+      <c r="W4" s="2" t="str" cm="1">
+        <f t="array" ref="W4">IF(INDEX($G4:$Q4, COLUMN(F3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(F3)))</f>
+        <v/>
+      </c>
+      <c r="X4" s="2" t="str" cm="1">
+        <f t="array" ref="X4">IF(INDEX($G4:$Q4, COLUMN(G3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(G3)))</f>
+        <v/>
+      </c>
+      <c r="Y4" s="2" t="str" cm="1">
+        <f t="array" ref="Y4">IF(INDEX($G4:$Q4, COLUMN(H3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(H3)))</f>
+        <v/>
+      </c>
+      <c r="Z4" s="2" t="str" cm="1">
+        <f t="array" ref="Z4">IF(INDEX($G4:$Q4, COLUMN(I3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(I3)))</f>
+        <v/>
+      </c>
+      <c r="AA4" s="2" t="str" cm="1">
+        <f t="array" ref="AA4">IF(INDEX($G4:$Q4, COLUMN(J3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(J3)))</f>
+        <v/>
+      </c>
+      <c r="AB4" s="2" t="str" cm="1">
+        <f t="array" ref="AB4">IF(INDEX($G4:$Q4, COLUMN(K3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(K3)))</f>
+        <v/>
       </c>
       <c r="AP4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AQ4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AR4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AU4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AX4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
@@ -1109,115 +1240,216 @@
         <v>24002</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>79</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" t="s">
-        <v>70</v>
+      <c r="G5" s="2">
+        <v>24002</v>
+      </c>
+      <c r="R5" s="2" t="str" cm="1">
+        <f t="array" ref="R5">IF(INDEX($G5:$Q5, COLUMN(A4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(A4)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/24002</v>
+      </c>
+      <c r="S5" s="2" t="str" cm="1">
+        <f t="array" ref="S5">IF(INDEX($G5:$Q5, COLUMN(B4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(B4)))</f>
+        <v/>
+      </c>
+      <c r="T5" s="2" t="str" cm="1">
+        <f t="array" ref="T5">IF(INDEX($G5:$Q5, COLUMN(C4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(C4)))</f>
+        <v/>
+      </c>
+      <c r="U5" s="2" t="str" cm="1">
+        <f t="array" ref="U5">IF(INDEX($G5:$Q5, COLUMN(D4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(D4)))</f>
+        <v/>
+      </c>
+      <c r="V5" s="2" t="str" cm="1">
+        <f t="array" ref="V5">IF(INDEX($G5:$Q5, COLUMN(E4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(E4)))</f>
+        <v/>
+      </c>
+      <c r="W5" s="2" t="str" cm="1">
+        <f t="array" ref="W5">IF(INDEX($G5:$Q5, COLUMN(F4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(F4)))</f>
+        <v/>
+      </c>
+      <c r="X5" s="2" t="str" cm="1">
+        <f t="array" ref="X5">IF(INDEX($G5:$Q5, COLUMN(G4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(G4)))</f>
+        <v/>
+      </c>
+      <c r="Y5" s="2" t="str" cm="1">
+        <f t="array" ref="Y5">IF(INDEX($G5:$Q5, COLUMN(H4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(H4)))</f>
+        <v/>
+      </c>
+      <c r="Z5" s="2" t="str" cm="1">
+        <f t="array" ref="Z5">IF(INDEX($G5:$Q5, COLUMN(I4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(I4)))</f>
+        <v/>
+      </c>
+      <c r="AA5" s="2" t="str" cm="1">
+        <f t="array" ref="AA5">IF(INDEX($G5:$Q5, COLUMN(J4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(J4)))</f>
+        <v/>
+      </c>
+      <c r="AB5" s="2" t="str" cm="1">
+        <f t="array" ref="AB5">IF(INDEX($G5:$Q5, COLUMN(K4))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G5:$Q5, COLUMN(K4)))</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>695</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" t="s">
         <v>98</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S6" t="s">
-        <v>70</v>
+      <c r="I6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="2" t="str" cm="1">
+        <f t="array" ref="R6">IF(INDEX($G6:$Q6, COLUMN(A5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(A5)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB1091-1</v>
+      </c>
+      <c r="S6" s="2" t="str" cm="1">
+        <f t="array" ref="S6">IF(INDEX($G6:$Q6, COLUMN(B5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(B5)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB1091-2</v>
+      </c>
+      <c r="T6" s="2" t="str" cm="1">
+        <f t="array" ref="T6">IF(INDEX($G6:$Q6, COLUMN(C5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(C5)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB1091-3</v>
+      </c>
+      <c r="U6" s="2" t="str" cm="1">
+        <f t="array" ref="U6">IF(INDEX($G6:$Q6, COLUMN(D5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(D5)))</f>
+        <v/>
+      </c>
+      <c r="V6" s="2" t="str" cm="1">
+        <f t="array" ref="V6">IF(INDEX($G6:$Q6, COLUMN(E5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(E5)))</f>
+        <v/>
+      </c>
+      <c r="W6" s="2" t="str" cm="1">
+        <f t="array" ref="W6">IF(INDEX($G6:$Q6, COLUMN(F5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(F5)))</f>
+        <v/>
+      </c>
+      <c r="X6" s="2" t="str" cm="1">
+        <f t="array" ref="X6">IF(INDEX($G6:$Q6, COLUMN(G5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(G5)))</f>
+        <v/>
+      </c>
+      <c r="Y6" s="2" t="str" cm="1">
+        <f t="array" ref="Y6">IF(INDEX($G6:$Q6, COLUMN(H5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(H5)))</f>
+        <v/>
+      </c>
+      <c r="Z6" s="2" t="str" cm="1">
+        <f t="array" ref="Z6">IF(INDEX($G6:$Q6, COLUMN(I5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(I5)))</f>
+        <v/>
+      </c>
+      <c r="AA6" s="2" t="str" cm="1">
+        <f t="array" ref="AA6">IF(INDEX($G6:$Q6, COLUMN(J5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(J5)))</f>
+        <v/>
+      </c>
+      <c r="AB6" s="2" t="str" cm="1">
+        <f t="array" ref="AB6">IF(INDEX($G6:$Q6, COLUMN(K5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(K5)))</f>
+        <v/>
       </c>
       <c r="AF6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AQ6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AU6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AX6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R7" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="R7" s="2" t="str" cm="1">
+        <f t="array" ref="R7">IF(INDEX($G7:$Q7, COLUMN(A6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(A6)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/NKG2002</v>
+      </c>
+      <c r="S7" s="2" t="str" cm="1">
+        <f t="array" ref="S7">IF(INDEX($G7:$Q7, COLUMN(B6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(B6)))</f>
+        <v/>
+      </c>
+      <c r="T7" s="2" t="str" cm="1">
+        <f t="array" ref="T7">IF(INDEX($G7:$Q7, COLUMN(C6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(C6)))</f>
+        <v/>
+      </c>
+      <c r="U7" s="2" t="str" cm="1">
+        <f t="array" ref="U7">IF(INDEX($G7:$Q7, COLUMN(D6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(D6)))</f>
+        <v/>
+      </c>
+      <c r="V7" s="2" t="str" cm="1">
+        <f t="array" ref="V7">IF(INDEX($G7:$Q7, COLUMN(E6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(E6)))</f>
+        <v/>
+      </c>
+      <c r="W7" s="2" t="str" cm="1">
+        <f t="array" ref="W7">IF(INDEX($G7:$Q7, COLUMN(F6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(F6)))</f>
+        <v/>
+      </c>
+      <c r="X7" s="2" t="str" cm="1">
+        <f t="array" ref="X7">IF(INDEX($G7:$Q7, COLUMN(G6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(G6)))</f>
+        <v/>
+      </c>
+      <c r="Y7" s="2" t="str" cm="1">
+        <f t="array" ref="Y7">IF(INDEX($G7:$Q7, COLUMN(H6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(H6)))</f>
+        <v/>
+      </c>
+      <c r="Z7" s="2" t="str" cm="1">
+        <f t="array" ref="Z7">IF(INDEX($G7:$Q7, COLUMN(I6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(I6)))</f>
+        <v/>
+      </c>
+      <c r="AA7" s="2" t="str" cm="1">
+        <f t="array" ref="AA7">IF(INDEX($G7:$Q7, COLUMN(J6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(J6)))</f>
+        <v/>
+      </c>
+      <c r="AB7" s="2" t="str" cm="1">
+        <f t="array" ref="AB7">IF(INDEX($G7:$Q7, COLUMN(K6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(K6)))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{09FF7FE5-B1A0-48DA-BE2E-100FA5F0AEFC}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{EB14BD9C-F292-498C-8E37-0CF127B48FFD}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{F9C3C625-C0CC-48E5-8EDC-5637DF5F958A}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{CCA374FC-7A29-4BEE-8DD0-5C6592475518}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{7751A8CE-E7D0-45DD-BB79-7F6089BCF8FD}"/>
-    <hyperlink ref="L2" r:id="rId6" xr:uid="{8E6D7DAC-9672-49D0-A49A-20F0AB4F8F09}"/>
-    <hyperlink ref="Q2" r:id="rId7" xr:uid="{EAF1676B-F3F4-4B4A-9AC1-C966B698C30D}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{A126031C-787C-4632-A0AA-29BF02CC6817}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{9618A1D1-D973-419B-899E-557770DCF48F}"/>
-    <hyperlink ref="I3" r:id="rId10" xr:uid="{77688FDF-B830-4859-B0FE-254A94E6661D}"/>
-    <hyperlink ref="J3" r:id="rId11" xr:uid="{D82A7E3A-4D20-4C8B-8C5F-FFD2E19E27A1}"/>
-    <hyperlink ref="K3" r:id="rId12" xr:uid="{46742F67-5564-4F18-8151-7884B39BA63A}"/>
-    <hyperlink ref="Q3" r:id="rId13" xr:uid="{2475583F-A5B2-4E53-BBB5-AB732555BD3C}"/>
-    <hyperlink ref="G4" r:id="rId14" xr:uid="{47EA925D-3AED-45BD-9F4C-294669A3BDCE}"/>
-    <hyperlink ref="H4" r:id="rId15" xr:uid="{76AEF5A6-4346-457A-BD27-0395C36C47A4}"/>
-    <hyperlink ref="I4" r:id="rId16" xr:uid="{3DA32674-3758-46E2-98CB-3D766A52D8DD}"/>
-    <hyperlink ref="J4" r:id="rId17" xr:uid="{ECB9B30F-DAEF-4B97-9B19-C4CBD18105A6}"/>
-    <hyperlink ref="Q4" r:id="rId18" xr:uid="{897F4E40-634B-41C3-BCBE-3BC9C0C505FD}"/>
-    <hyperlink ref="G5" r:id="rId19" xr:uid="{9D8AB772-8ABA-4B4C-8124-9A9A09525CA7}"/>
-    <hyperlink ref="G6" r:id="rId20" xr:uid="{5385DF0B-66EA-4ECD-8ECE-0078C47EAE0A}"/>
-    <hyperlink ref="G7" r:id="rId21" xr:uid="{B8AAB890-FF5C-48D3-BBE7-54CDC1582DB0}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datos/catalogo-mare.xlsx
+++ b/datos/catalogo-mare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MARE CREANDO 2025\CATALOGO MARE\plantilla para cloude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29364878-404F-481B-8377-46747071A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2C3F4F-7F9A-4E34-9F31-A3A11638D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{227819F0-7ECA-4DCA-A611-9F2186BA8A76}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t>Código</t>
   </si>
@@ -359,6 +359,36 @@
   </si>
   <si>
     <t>LB1091-3</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Dorado</t>
+  </si>
+  <si>
+    <t>Plateado</t>
+  </si>
+  <si>
+    <t>Acero</t>
+  </si>
+  <si>
+    <t>Nude</t>
+  </si>
+  <si>
+    <t>Tonos marrones</t>
+  </si>
+  <si>
+    <t>Tonos pastel</t>
+  </si>
+  <si>
+    <t>Varios colores</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
   </si>
 </sst>
 </file>
@@ -755,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDB109E-BBDE-4CBF-8652-93187ACB1643}">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +801,7 @@
     <col min="18" max="18" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,112 +887,142 @@
         <v>82</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1047,14 +1107,20 @@
       <c r="AC2" t="s">
         <v>53</v>
       </c>
-      <c r="AW2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="AH2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1133,17 +1199,20 @@
         <f t="array" ref="AB3">IF(INDEX($G3:$Q3, COLUMN(K2))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G3:$Q3, COLUMN(K2)))</f>
         <v/>
       </c>
-      <c r="AD3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1219,23 +1288,26 @@
         <f t="array" ref="AB4">IF(INDEX($G4:$Q4, COLUMN(K3))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G4:$Q4, COLUMN(K3)))</f>
         <v/>
       </c>
-      <c r="AP4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX4" t="s">
+      <c r="AC4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24002</v>
       </c>
@@ -1299,7 +1371,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1368,20 +1440,23 @@
         <f t="array" ref="AB6">IF(INDEX($G6:$Q6, COLUMN(K5))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G6:$Q6, COLUMN(K5)))</f>
         <v/>
       </c>
-      <c r="AF6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX6" t="s">
+      <c r="AC6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
